--- a/ui/components/terre_neuve_sharedlinks.xlsx
+++ b/ui/components/terre_neuve_sharedlinks.xlsx
@@ -497,7 +497,11 @@
           <t>Service providers performance</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>HANWASH USER</t>
@@ -505,7 +509,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Service providers performance: </t>
+          <t>Service providers performance: ---</t>
         </is>
       </c>
     </row>
@@ -515,7 +519,11 @@
           <t>Investment status</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>HANWASH USER</t>
@@ -523,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Investment status: </t>
+          <t>Investment status: ---</t>
         </is>
       </c>
     </row>
@@ -533,7 +541,11 @@
           <t>Lessons Learned</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>HANWASH USER</t>
@@ -541,7 +553,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lessons Learned: </t>
+          <t>Lessons Learned: ---</t>
         </is>
       </c>
     </row>

--- a/ui/components/terre_neuve_sharedlinks.xlsx
+++ b/ui/components/terre_neuve_sharedlinks.xlsx
@@ -461,7 +461,11 @@
           <t>Commune Action Plan</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://go.mwater.co/terre_neuve_cap</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>HANWASH USER</t>
@@ -469,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Commune Action Plan: </t>
+          <t>Commune Action Plan: https://go.mwater.co/terre_neuve_cap</t>
         </is>
       </c>
     </row>
@@ -479,7 +483,11 @@
           <t>Project performance</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>HANWASH USER</t>
@@ -487,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Project performance: </t>
+          <t>Project performance: ---</t>
         </is>
       </c>
     </row>
